--- a/Atlique_FMCG_promotional_analysis/recommended insights/product_performance/category_and_promo_type_effectiveness.xlsx
+++ b/Atlique_FMCG_promotional_analysis/recommended insights/product_performance/category_and_promo_type_effectiveness.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vivek\sql\SQL\Atlique_FMCG_promotional_analysis\recommended insights\product_performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1040E146-17B0-4714-932D-7A7615AE7059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5163E687-100B-4B7B-9A9C-8A6CA2AC99A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1637,15 +1637,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209548</xdr:colOff>
+      <xdr:colOff>390522</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1867,9 +1867,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1907,7 +1907,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2013,7 +2013,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2155,7 +2155,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2166,7 +2166,7 @@
   <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,7 +2288,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
